--- a/freecad-part-design-best-practices.xlsx
+++ b/freecad-part-design-best-practices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\GitHub\FreeCAD-Teaching-Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156545EF-8042-444D-A21B-7CDD40EF7201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6A289-F070-4EA9-84FC-AED126291758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9600" xr2:uid="{BEFFCEF2-836F-47EE-9948-D69F23913139}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>title</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>this could make you redo all your steps after the fillet if it fails</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0C90AE-FBA4-48AF-AEB4-C72E7430F7C0}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +433,7 @@
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -465,6 +474,9 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
